--- a/media/bmkz_download_fiz.xlsx
+++ b/media/bmkz_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EEC937-D311-B049-866D-70887344FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC0F66A-934C-BF45-8D46-19FEC50154EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="1740" windowWidth="27840" windowHeight="16740" xr2:uid="{392D9F8D-AFB5-7E47-9560-7FC7F181A4ED}"/>
   </bookViews>
@@ -135,7 +135,7 @@
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,19 +158,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="22"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="22"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
@@ -207,40 +194,27 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial Narrow"/>
+      <sz val="20"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -301,18 +275,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -328,46 +295,30 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,62 +335,71 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +718,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection sqref="A1:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,295 +732,295 @@
     <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="52" t="s">
+    <row r="1" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="48" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="2"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
-    <row r="2" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="52" t="s">
+    <row r="2" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="54" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="3"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
     </row>
-    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="53" t="s">
+    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="48" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="53" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="49" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
     </row>
-    <row r="5" spans="1:18" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+    <row r="5" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
     </row>
-    <row r="6" spans="1:18" ht="28" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="51" t="s">
+    <row r="6" spans="1:18" ht="25" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:18" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="174" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="58" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="1:18" ht="58" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="25"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="16"/>
     </row>
-    <row r="12" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="17" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="19" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="20" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="22" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="23" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="24" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="25" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="26" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="27" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="28" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="29" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="30" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="31" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="32" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="33" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="34" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="35" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="36" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="17" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="18" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="19" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="20" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="21" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="22" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="23" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="24" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="25" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="26" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="27" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="28" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="29" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="30" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="31" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="32" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="33" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="34" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="35" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+    <row r="36" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A6:Q6"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D6:M6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
